--- a/Jogos_do_Dia/2023-04-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -680,10 +680,10 @@
         <v>1.4</v>
       </c>
       <c r="V2" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
         <v>1.61</v>
@@ -713,7 +713,7 @@
         <v>2.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -742,91 +742,91 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="V3" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="W3" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="X3" t="n">
         <v>1.42</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="Z3" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF3" t="n">
         <v>1.42</v>
       </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="4">
@@ -906,13 +906,13 @@
         <v>1.06</v>
       </c>
       <c r="X4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Y4" t="n">
         <v>1.22</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="G5" t="n">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.17</v>
       </c>
       <c r="I5" t="n">
         <v>1.05</v>
@@ -983,10 +983,10 @@
         <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="N5" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1010,10 +1010,10 @@
         <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
         <v>1.22</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="H6" t="n">
-        <v>2.98</v>
+        <v>3.78</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.9</v>
       </c>
       <c r="M6" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="N6" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1120,10 +1120,10 @@
         <v>1.77</v>
       </c>
       <c r="V6" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="W6" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="X6" t="n">
         <v>1.64</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="G7" t="n">
         <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="I7" t="n">
         <v>1.05</v>
@@ -1230,10 +1230,10 @@
         <v>1.35</v>
       </c>
       <c r="V7" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="W7" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="X7" t="n">
         <v>1.7</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.85</v>
+        <v>4.75</v>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="I8" t="n">
         <v>1.04</v>
@@ -1313,10 +1313,10 @@
         <v>3.55</v>
       </c>
       <c r="M8" t="n">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="N8" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1340,10 +1340,10 @@
         <v>1.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="W8" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X8" t="n">
         <v>1.73</v>
@@ -1355,13 +1355,13 @@
         <v>3.39</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="AD8" t="n">
         <v>1.25</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="G9" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="H9" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="I9" t="n">
         <v>1.06</v>
@@ -1423,10 +1423,10 @@
         <v>3.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="N9" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
         <v>1.39</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.29</v>
+        <v>2.41</v>
       </c>
       <c r="G10" t="n">
-        <v>2.73</v>
+        <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="I10" t="n">
         <v>1.13</v>
@@ -1527,16 +1527,16 @@
         <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="L10" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="M10" t="n">
-        <v>2.71</v>
+        <v>2.45</v>
       </c>
       <c r="N10" t="n">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="O10" t="n">
         <v>1.67</v>
@@ -1575,25 +1575,25 @@
         <v>3.06</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.99</v>
+        <v>2.25</v>
       </c>
       <c r="G11" t="n">
-        <v>2.93</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1637,16 +1637,16 @@
         <v>7.75</v>
       </c>
       <c r="K11" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="L11" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M11" t="n">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="N11" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -2725,7 +2725,7 @@
         <v>1.73</v>
       </c>
       <c r="G21" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="H21" t="n">
         <v>4.6</v>
@@ -2743,10 +2743,10 @@
         <v>2.57</v>
       </c>
       <c r="M21" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="N21" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="O21" t="n">
         <v>1.49</v>
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>1.13</v>
       </c>
       <c r="X22" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -2907,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
